--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\ClubNinjas-dsAlgoBDD\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\ClubNinjas-dsAlgoTestNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A0B10-8925-4351-B15D-69B74E3DB248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAF166E-30D5-4216-B215-422253CC6E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3650" yWindow="1960" windowWidth="14400" windowHeight="7310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>UserName</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>Empty</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>validLoginId</t>
+  </si>
+  <si>
+    <t>invalidLogin</t>
+  </si>
+  <si>
+    <t>EmptyField</t>
   </si>
 </sst>
 </file>
@@ -2058,37 +2070,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19390E6-AB14-4B31-A0B5-2F88190D0871}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{23CB3FB1-0FA9-48D0-85C1-1583AC770DBF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{23CB3FB1-0FA9-48D0-85C1-1583AC770DBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2096,76 +2115,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{08128789-F0FF-4810-AFFE-2FF1C73369F4}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{08128789-F0FF-4810-AFFE-2FF1C73369F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2173,7 +2209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36287EC-5C35-4A53-A766-4648041612D3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\ClubNinjas-dsAlgoTestNG\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimre\eclipse-workspace\DSAlgoTestNG_ClubNinjas\ClubNinjas_DsAlgoTestNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAF166E-30D5-4216-B215-422253CC6E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9186A241-AA02-4767-A941-794D1FF1A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="1960" windowWidth="14400" windowHeight="7310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>UserName</t>
   </si>
@@ -305,6 +305,45 @@
   </si>
   <si>
     <t>EmptyField</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>InvalidRun</t>
+  </si>
+  <si>
+    <t>InvalidSubmit</t>
+  </si>
+  <si>
+    <t>ValidRunSearch</t>
+  </si>
+  <si>
+    <t>ValidSubmitSearch</t>
+  </si>
+  <si>
+    <t>ValidRunMax</t>
+  </si>
+  <si>
+    <t>ValidSubmitMax</t>
+  </si>
+  <si>
+    <t>ValidSubmitFindEven</t>
+  </si>
+  <si>
+    <t>ValidRunFindEven</t>
+  </si>
+  <si>
+    <t>RunValidSquare</t>
+  </si>
+  <si>
+    <t>SubmitValidSquare</t>
   </si>
 </sst>
 </file>
@@ -445,7 +484,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -482,13 +521,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -496,6 +531,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,18 +823,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="12.6328125" style="3"/>
+    <col min="1" max="1" width="16.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.06640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.9296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="12.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -815,7 +851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -826,7 +862,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>207207208</v>
       </c>
@@ -837,7 +873,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -850,7 +886,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -862,7 +898,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -882,7 +918,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -902,7 +938,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -919,7 +955,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>19</v>
@@ -937,7 +973,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -956,7 +992,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -976,7 +1012,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -996,7 +1032,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1049,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
@@ -1031,7 +1067,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1048,1015 +1084,1015 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{E57784E0-9175-4B69-8570-1346A4233AF2}"/>
@@ -2072,18 +2108,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19390E6-AB14-4B31-A0B5-2F88190D0871}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2094,7 +2130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2117,20 +2153,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2141,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2151,7 +2187,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2160,7 +2196,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -2172,7 +2208,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2184,16 +2220,16 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="2"/>
     </row>
   </sheetData>
@@ -2213,77 +2249,77 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="23">
         <v>123434</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2297,53 +2333,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6805FF-85F8-4503-AEFF-417C4DCED9F7}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2354,156 +2405,196 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C156544-10E3-4CC6-B021-D85ABA7773B9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.06640625" customWidth="1"/>
+    <col min="3" max="3" width="41.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:4" ht="171" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="20">
+      <c r="C8" s="24">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:4" ht="171" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="20">
+      <c r="C10" s="24">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2520,13 +2611,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
@@ -2534,7 +2625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2542,15 +2633,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2558,7 +2649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2576,13 +2667,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
@@ -2590,7 +2681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2598,15 +2689,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2614,7 +2705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>75</v>
       </c>

--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimre\eclipse-workspace\DSAlgoTestNG_ClubNinjas\ClubNinjas_DsAlgoTestNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9186A241-AA02-4767-A941-794D1FF1A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE685CD-807E-4096-9FD3-2DC1E055BB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
@@ -2108,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19390E6-AB14-4B31-A0B5-2F88190D0871}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -2407,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C156544-10E3-4CC6-B021-D85ABA7773B9}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimre\eclipse-workspace\DSAlgoTestNG_ClubNinjas\ClubNinjas_DsAlgoTestNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE685CD-807E-4096-9FD3-2DC1E055BB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610C1FDE-6ECF-4B3D-8BB2-10DE7C300E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
   <si>
     <t>UserName</t>
   </si>
@@ -484,7 +484,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -532,6 +532,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -817,1287 +819,1333 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.06640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.9296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="12.59765625" style="3"/>
+    <col min="1" max="1" width="12.59765625" style="3"/>
+    <col min="2" max="2" width="16.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.06640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.9296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8">
         <v>207207208</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
-        <v>5</v>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="9">
-        <v>987654321</v>
       </c>
       <c r="C11" s="9">
         <v>987654321</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9">
+        <v>987654321</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G16" s="6"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F17" s="6"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G18" s="5"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F21" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{E57784E0-9175-4B69-8570-1346A4233AF2}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{38AE301F-3459-43D6-B0C8-22ABF3B9A333}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{63D0777F-9799-4A20-BA86-DBA70D8EA4BC}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{E57784E0-9175-4B69-8570-1346A4233AF2}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{38AE301F-3459-43D6-B0C8-22ABF3B9A333}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{63D0777F-9799-4A20-BA86-DBA70D8EA4BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2407,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C156544-10E3-4CC6-B021-D85ABA7773B9}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
